--- a/test_data/TestData.xlsx
+++ b/test_data/TestData.xlsx
@@ -47,16 +47,16 @@
     <t>test_001</t>
   </si>
   <si>
-    <t>tmhugjmyzvshbocapkq</t>
-  </si>
-  <si>
-    <t>Pasordtest02@gmail.comzvntcyblrmjyqcpxf</t>
+    <t>tmhugjmyzvshbocapkqvsoaqmrh</t>
+  </si>
+  <si>
+    <t>Pasordtest02@gmail.comzvntcyblrmjyqcpxfqlijavfe</t>
   </si>
   <si>
     <t>Password02</t>
   </si>
   <si>
-    <t>eb9f0a91-a560-4858-9526-ec626dab27b6</t>
+    <t>6134fdc4-f377-4567-b917-0c68ffc15637</t>
   </si>
   <si>
     <t>authaccount/registration</t>
@@ -97,7 +97,7 @@
       <u val="single"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -107,6 +107,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -124,11 +130,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -429,8 +436,8 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
@@ -439,6 +446,7 @@
     <col customWidth="1" max="2" min="2" width="14.453125"/>
     <col customWidth="1" max="3" min="3" width="11.54296875"/>
     <col customWidth="1" max="4" min="4" width="23.08984375"/>
+    <col customWidth="1" max="5" min="5" width="14.7265625"/>
     <col bestFit="1" customWidth="1" max="7" min="7" width="21.81640625"/>
     <col customWidth="1" max="8" min="8" width="21.81640625"/>
   </cols>
@@ -447,19 +455,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -490,7 +498,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>24734</v>
+        <v>24747</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
